--- a/TestData/EndPoints.xlsx
+++ b/TestData/EndPoints.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>post_admin_login_Endpoint</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Expected Response</t>
   </si>
   <si>
+    <t>Delete</t>
+  </si>
+  <si>
     <t>https://oneself-api-test.optisolbusiness.com/api/admin/login</t>
   </si>
   <si>
@@ -39,16 +42,19 @@
   <si>
     <t>"\"errorCode\":2,"</t>
   </si>
+  <si>
+    <t>https://oneself-api-test.optisolbusiness.com/api/admin/user/delete_customer/{user_id}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -64,6 +70,81 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -75,6 +156,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,15 +173,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,105 +195,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,25 +224,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,145 +302,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,6 +409,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,9 +471,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,17 +491,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,157 +512,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,21 +983,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="59.5454545454545" customWidth="1"/>
     <col min="2" max="2" width="66.9090909090909" customWidth="1"/>
     <col min="3" max="3" width="92.5454545454545" customWidth="1"/>
     <col min="4" max="4" width="16.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="74.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1003,26 +1011,33 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://oneself-api-test.optisolbusiness.com/api/admin/login"/>
     <hyperlink ref="B2" r:id="rId2" display="https://oneself-api-test.optisolbusiness.com/api/admin/get-my-profile" tooltip="https://oneself-api-test.optisolbusiness.com/api/admin/get-my-profile"/>
-    <hyperlink ref="C2" r:id="rId3" display="https://oneself-api-test.optisolbusiness.com/api/admin/update_active_status/customer/{user_id}"/>
+    <hyperlink ref="C2" r:id="rId3" display="https://oneself-api-test.optisolbusiness.com/api/admin/update_active_status/customer/{user_id}" tooltip="https://oneself-api-test.optisolbusiness.com/api/admin/update_active_status/customer/{user_id}"/>
+    <hyperlink ref="E2" r:id="rId4" display="https://oneself-api-test.optisolbusiness.com/api/admin/user/delete_customer/{user_id}" tooltip="https://oneself-api-test.optisolbusiness.com/api/admin/user/delete_customer/{user_id}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/TestData/EndPoints.xlsx
+++ b/TestData/EndPoints.xlsx
@@ -22,13 +22,13 @@
     <t>get_my_profile_Endpoint</t>
   </si>
   <si>
-    <t>patch_To_update_the_activestatus_Endpoint</t>
-  </si>
-  <si>
     <t>Expected Response</t>
   </si>
   <si>
     <t>Delete</t>
+  </si>
+  <si>
+    <t>patch</t>
   </si>
   <si>
     <t>https://oneself-api-test.optisolbusiness.com/api/admin/login</t>
@@ -37,13 +37,13 @@
     <t>https://oneself-api-test.optisolbusiness.com/api/admin/get-my-profile</t>
   </si>
   <si>
-    <t>https://oneself-api-test.optisolbusiness.com/api/admin/update_active_status/customer/{user_id}</t>
-  </si>
-  <si>
     <t>"\"errorCode\":2,"</t>
   </si>
   <si>
     <t>https://oneself-api-test.optisolbusiness.com/api/admin/user/delete_customer/{user_id}</t>
+  </si>
+  <si>
+    <t>https://oneself-api-test.optisolbusiness.com/api/admin/update_active_status/{user_id}</t>
   </si>
 </sst>
 </file>
@@ -51,9 +51,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -95,16 +95,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,7 +151,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -127,81 +159,49 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -218,187 +218,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,9 +414,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -432,15 +443,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,17 +467,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,21 +500,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -533,136 +533,137 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="49">
@@ -985,7 +986,7 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -993,9 +994,9 @@
   <cols>
     <col min="1" max="1" width="59.5454545454545" customWidth="1"/>
     <col min="2" max="2" width="66.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="92.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="16.7272727272727" customWidth="1"/>
-    <col min="5" max="5" width="74.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="16.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="74.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="73.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1022,13 +1023,13 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1036,8 +1037,8 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://oneself-api-test.optisolbusiness.com/api/admin/login"/>
     <hyperlink ref="B2" r:id="rId2" display="https://oneself-api-test.optisolbusiness.com/api/admin/get-my-profile" tooltip="https://oneself-api-test.optisolbusiness.com/api/admin/get-my-profile"/>
-    <hyperlink ref="C2" r:id="rId3" display="https://oneself-api-test.optisolbusiness.com/api/admin/update_active_status/customer/{user_id}" tooltip="https://oneself-api-test.optisolbusiness.com/api/admin/update_active_status/customer/{user_id}"/>
-    <hyperlink ref="E2" r:id="rId4" display="https://oneself-api-test.optisolbusiness.com/api/admin/user/delete_customer/{user_id}" tooltip="https://oneself-api-test.optisolbusiness.com/api/admin/user/delete_customer/{user_id}"/>
+    <hyperlink ref="D2" r:id="rId3" display="https://oneself-api-test.optisolbusiness.com/api/admin/user/delete_customer/{user_id}" tooltip="https://oneself-api-test.optisolbusiness.com/api/admin/user/delete_customer/{user_id}"/>
+    <hyperlink ref="E2" r:id="rId4" display="https://oneself-api-test.optisolbusiness.com/api/admin/update_active_status/{user_id}" tooltip="https://oneself-api-test.optisolbusiness.com/api/admin/update_active_status/{user_id}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
